--- a/ExcelToSQL.xlsx
+++ b/ExcelToSQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1ba4343c3941a57/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1ba4343c3941a57/Documentos/ExcelToSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11BE96A-3EB4-4595-B572-C0EFC3AF8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{F11BE96A-3EB4-4595-B572-C0EFC3AF8AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F642BC2-6004-47B6-8D35-7378A55DEDA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C437AF9E-0E4A-4A69-860D-E6EBC6F7E7E8}"/>
   </bookViews>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>COLUNA1</t>
-  </si>
-  <si>
-    <t>COLUNA2</t>
-  </si>
-  <si>
-    <t>COLUNA3</t>
-  </si>
-  <si>
-    <t>COLUNA4</t>
-  </si>
-  <si>
-    <t>COLUNA5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -89,14 +74,38 @@
     <t>L</t>
   </si>
   <si>
-    <t>NOME_DA_TABELA1</t>
+    <t>TABLE_NAME_1</t>
+  </si>
+  <si>
+    <t>COLUMN_1</t>
+  </si>
+  <si>
+    <t>COLUMN_2</t>
+  </si>
+  <si>
+    <t>COLUMN_3</t>
+  </si>
+  <si>
+    <t>COLUMN_4</t>
+  </si>
+  <si>
+    <t>COLUMN_5</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +121,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,17 +162,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +210,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,95 +516,96 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
